--- a/SuppXLS/Scen_DemProj_ELC.xlsx
+++ b/SuppXLS/Scen_DemProj_ELC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Caso_Base_Junio_VEDA\CasoBase_Junio_Simulacion\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8103760E-700B-4901-827B-B4F935E70F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BEF6D7-4E69-4C48-B023-C0314BC31816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Year</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Demand</t>
-  </si>
-  <si>
-    <t>DTCAR</t>
   </si>
   <si>
     <t>Demand Driver (annual growth)</t>
@@ -276,7 +273,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -286,7 +283,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -871,7 +867,7 @@
   <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -883,7 +879,7 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -893,11 +889,11 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="2:9" ht="15" thickBot="1">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -920,10 +916,10 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -931,11 +927,11 @@
       <c r="G4">
         <v>2005</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>10422</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -950,7 +946,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -974,8 +970,8 @@
         <v>4</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="J2" s="14" t="s">
-        <v>10</v>
+      <c r="J2" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
@@ -997,8 +993,8 @@
       <c r="G3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>15</v>
+      <c r="J3" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1008,14 +1004,14 @@
       <c r="E4">
         <v>2006</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <f>BY_Data!$H$4*(1+$J$4)^(E4-2005)</f>
         <v>10838.880000000001</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="9">
         <v>0.04</v>
       </c>
     </row>
@@ -1026,14 +1022,14 @@
       <c r="E5">
         <v>2010</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <f>BY_Data!$H$4*(1+$J$4)^(E5-2005)</f>
         <v>12679.956548812803</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="10"/>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10">
       <c r="D6" t="s">
@@ -1042,14 +1038,14 @@
       <c r="E6">
         <v>2015</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <f>BY_Data!$H$4*(1+$J$4)^(E6-2005)</f>
         <v>15427.105937418988</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="10"/>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10">
       <c r="D7" t="s">
@@ -1058,14 +1054,14 @@
       <c r="E7">
         <v>2020</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <f>BY_Data!$H$4*(1+$J$4)^(E7-2005)</f>
         <v>18769.433214393088</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="10"/>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SuppXLS/Scen_DemProj_ELC.xlsx
+++ b/SuppXLS/Scen_DemProj_ELC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Caso_Base_Junio_VEDA\CasoBase_Junio_Simulacion\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BEF6D7-4E69-4C48-B023-C0314BC31816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA24B88C-7DEE-47A9-AF09-4CC0704A3B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -866,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -945,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1006,13 +1006,13 @@
       </c>
       <c r="F4" s="12">
         <f>BY_Data!$H$4*(1+$J$4)^(E4-2005)</f>
-        <v>10838.880000000001</v>
+        <v>10734.66</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="9">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="F5" s="12">
         <f>BY_Data!$H$4*(1+$J$4)^(E5-2005)</f>
-        <v>12679.956548812803</v>
+        <v>12081.954402354599</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="F6" s="12">
         <f>BY_Data!$H$4*(1+$J$4)^(E6-2005)</f>
-        <v>15427.105937418988</v>
+        <v>14006.296505524437</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="F7" s="12">
         <f>BY_Data!$H$4*(1+$J$4)^(E7-2005)</f>
-        <v>18769.433214393088</v>
+        <v>16237.136415813167</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
